--- a/Track_Model/Blue Line.xlsx
+++ b/Track_Model/Blue Line.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DRich\PycharmProjects\ece1140-tovarish\Track_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02D3BD2-275A-4D15-BF18-8D5BCEB3D9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33B0F46-8C32-4E29-94D6-6BB95BF949B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10695" yWindow="0" windowWidth="11010" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Line</t>
   </si>
@@ -65,18 +65,9 @@
     <t>A</t>
   </si>
   <si>
-    <t>RAILWAY CROSSING</t>
-  </si>
-  <si>
-    <t>Switch ( 5 to 6) or (5 to 11)</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
-    <t>Switch ( 5 to 6); Light</t>
-  </si>
-  <si>
     <t>Transponder</t>
   </si>
   <si>
@@ -86,26 +77,44 @@
     <t>C</t>
   </si>
   <si>
-    <t>Switch (5 to 11); Light</t>
-  </si>
-  <si>
     <t>Station C</t>
   </si>
   <si>
-    <t>Beacon Message</t>
-  </si>
-  <si>
     <t>Cumaltive Elevation (m)</t>
   </si>
   <si>
     <t>Station Side</t>
+  </si>
+  <si>
+    <t>Block Occupancy</t>
+  </si>
+  <si>
+    <t>Right</t>
+  </si>
+  <si>
+    <t>Temp</t>
+  </si>
+  <si>
+    <t>Beacon Message  or Infrastructure State</t>
+  </si>
+  <si>
+    <t>Light</t>
+  </si>
+  <si>
+    <t>Switch (6,11)</t>
+  </si>
+  <si>
+    <t>Beacon Msg Here</t>
+  </si>
+  <si>
+    <t>RXR</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,6 +132,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -149,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -169,13 +186,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -191,6 +207,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>707571</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>95984</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27ECF08E-35EF-4202-8579-EB43668169A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="3962400"/>
+          <a:ext cx="9426121" cy="3934559"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -456,28 +521,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.26953125" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="9.90625" customWidth="1"/>
-    <col min="11" max="11" width="10.26953125" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="7" customWidth="1"/>
+    <col min="4" max="5" width="9.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="7" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="11" style="7" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8" style="7" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="15" style="7" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="62" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,27 +557,33 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -523,21 +596,26 @@
       <c r="D2" s="3">
         <v>50</v>
       </c>
-      <c r="E2" s="8">
-        <v>0.5</v>
+      <c r="E2" s="3">
+        <v>0</v>
       </c>
       <c r="F2" s="3">
         <v>50</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
+      <c r="G2" s="5">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="7">
+        <v>74</v>
+      </c>
+      <c r="J2" s="3"/>
       <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L2" s="3"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="str">
         <f>A2</f>
         <v>Blue</v>
@@ -551,21 +629,26 @@
       <c r="D3" s="3">
         <v>50</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="3">
         <v>0</v>
       </c>
       <c r="F3" s="3">
         <v>50</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="7">
+        <v>74</v>
+      </c>
+      <c r="J3" s="3"/>
       <c r="K3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L3" s="3"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="str">
         <f t="shared" ref="A4:A16" si="0">A3</f>
         <v>Blue</v>
@@ -579,23 +662,30 @@
       <c r="D4" s="3">
         <v>50</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="3">
         <v>0</v>
       </c>
       <c r="F4" s="3">
         <v>50</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5">
-        <v>0</v>
+      <c r="G4" s="5">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>74</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -609,21 +699,26 @@
       <c r="D5" s="3">
         <v>50</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="3">
         <v>0</v>
       </c>
       <c r="F5" s="3">
         <v>50</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
+      <c r="G5" s="5">
+        <v>0</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>74</v>
+      </c>
+      <c r="J5" s="3"/>
       <c r="K5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -637,29 +732,36 @@
       <c r="D6" s="3">
         <v>50</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="3">
         <v>0</v>
       </c>
       <c r="F6" s="3">
         <v>50</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5">
-        <v>0</v>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <v>74</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="K6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
@@ -667,29 +769,36 @@
       <c r="D7" s="3">
         <v>50</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="3">
         <v>0</v>
       </c>
       <c r="F7" s="3">
         <v>50</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5">
-        <v>0</v>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>74</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="K7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4">
         <v>7</v>
@@ -697,27 +806,32 @@
       <c r="D8" s="3">
         <v>50</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="3">
         <v>0</v>
       </c>
       <c r="F8" s="3">
         <v>50</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>74</v>
+      </c>
+      <c r="J8" s="3"/>
       <c r="K8" s="6"/>
-    </row>
-    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3">
         <v>8</v>
@@ -725,27 +839,32 @@
       <c r="D9" s="3">
         <v>50</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3">
         <v>50</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>74</v>
+      </c>
+      <c r="J9" s="3"/>
       <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3">
         <v>9</v>
@@ -753,29 +872,36 @@
       <c r="D10" s="3">
         <v>50</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="3">
         <v>0</v>
       </c>
       <c r="F10" s="3">
         <v>50</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5">
-        <v>0</v>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>74</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L10" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" s="4">
         <v>10</v>
@@ -783,29 +909,36 @@
       <c r="D11" s="3">
         <v>50</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="3">
         <v>0</v>
       </c>
       <c r="F11" s="3">
         <v>50</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6"/>
-    </row>
-    <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>74</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3">
         <v>11</v>
@@ -813,29 +946,36 @@
       <c r="D12" s="3">
         <v>50</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="3">
         <v>0</v>
       </c>
       <c r="F12" s="3">
         <v>50</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5">
-        <v>0</v>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>74</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="K12" s="6"/>
-    </row>
-    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3">
         <v>12</v>
@@ -843,27 +983,32 @@
       <c r="D13" s="3">
         <v>50</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="3">
         <v>0</v>
       </c>
       <c r="F13" s="3">
         <v>50</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5">
-        <v>0</v>
-      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>74</v>
+      </c>
+      <c r="J13" s="3"/>
       <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4">
         <v>13</v>
@@ -871,27 +1016,32 @@
       <c r="D14" s="3">
         <v>50</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="3">
         <v>0</v>
       </c>
       <c r="F14" s="3">
         <v>50</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5">
-        <v>0</v>
-      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>74</v>
+      </c>
+      <c r="J14" s="3"/>
       <c r="K14" s="6"/>
-    </row>
-    <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C15" s="3">
         <v>14</v>
@@ -899,29 +1049,36 @@
       <c r="D15" s="3">
         <v>50</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="3">
         <v>0</v>
       </c>
       <c r="F15" s="3">
         <v>50</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5">
-        <v>0</v>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>74</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="K15" s="6"/>
-    </row>
-    <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L15" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C16" s="3">
         <v>15</v>
@@ -929,23 +1086,31 @@
       <c r="D16" s="3">
         <v>50</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="3">
         <v>0</v>
       </c>
       <c r="F16" s="3">
         <v>50</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>74</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5">
-        <v>0</v>
-      </c>
-      <c r="K16" s="6"/>
+      <c r="L16" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Track_Model/Blue Line.xlsx
+++ b/Track_Model/Blue Line.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DRich\PycharmProjects\ece1140-tovarish\Track_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33B0F46-8C32-4E29-94D6-6BB95BF949B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A337E9-307D-4AAB-97EF-C95A98CDD745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10695" yWindow="0" windowWidth="11010" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>Line</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>RXR</t>
+  </si>
+  <si>
+    <t>Heaters</t>
   </si>
 </sst>
 </file>
@@ -523,28 +526,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" style="7" customWidth="1"/>
-    <col min="4" max="5" width="9.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.26953125" style="7" customWidth="1"/>
+    <col min="4" max="5" width="9.7265625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="7" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="12.26953125" style="7" customWidth="1"/>
     <col min="9" max="9" width="11" style="7" customWidth="1"/>
-    <col min="10" max="10" width="24.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.453125" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="7" customWidth="1"/>
-    <col min="12" max="12" width="15.85546875" style="7" customWidth="1"/>
+    <col min="12" max="12" width="15.81640625" style="7" customWidth="1"/>
     <col min="13" max="13" width="15" style="7" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="7"/>
+    <col min="14" max="16384" width="9.1796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="62" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,9 +584,11 @@
       <c r="L1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -615,7 +620,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="str">
         <f>A2</f>
         <v>Blue</v>
@@ -648,7 +653,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="str">
         <f t="shared" ref="A4:A16" si="0">A3</f>
         <v>Blue</v>
@@ -685,7 +690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -718,7 +723,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="3"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -755,7 +760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -792,7 +797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -825,7 +830,7 @@
       <c r="K8" s="6"/>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -858,7 +863,7 @@
       <c r="K9" s="6"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -894,8 +899,11 @@
       <c r="L10" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -927,12 +935,15 @@
       <c r="J11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -969,7 +980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -1002,7 +1013,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -1035,7 +1046,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -1071,8 +1082,11 @@
       <c r="L15" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -1104,10 +1118,13 @@
       <c r="J16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="L16" s="3"/>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Track_Model/Blue Line.xlsx
+++ b/Track_Model/Blue Line.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DRich\PycharmProjects\ece1140-tovarish\Track_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4A337E9-307D-4AAB-97EF-C95A98CDD745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6564752A-1BB3-4582-9D41-F11F63EC7136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="11010" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Line</t>
   </si>
@@ -111,13 +111,22 @@
   </si>
   <si>
     <t>Heaters</t>
+  </si>
+  <si>
+    <t>Power Failure</t>
+  </si>
+  <si>
+    <t>Track Circuit Failure</t>
+  </si>
+  <si>
+    <t>Broken Rail Failure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +153,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -217,15 +232,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>707571</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>95984</xdr:rowOff>
+      <xdr:colOff>774246</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>67409</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -248,8 +263,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="57150" y="3962400"/>
-          <a:ext cx="9426121" cy="3934559"/>
+          <a:off x="123825" y="4124325"/>
+          <a:ext cx="9432471" cy="3934559"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -524,30 +539,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.81640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.26953125" style="7" customWidth="1"/>
-    <col min="4" max="5" width="9.7265625" style="7" customWidth="1"/>
-    <col min="6" max="6" width="8.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" style="7" customWidth="1"/>
+    <col min="4" max="5" width="9.7109375" style="7" customWidth="1"/>
+    <col min="6" max="6" width="8.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="7" customWidth="1"/>
-    <col min="8" max="8" width="12.26953125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="7" customWidth="1"/>
     <col min="9" max="9" width="11" style="7" customWidth="1"/>
-    <col min="10" max="10" width="24.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.42578125" style="7" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" style="7" customWidth="1"/>
-    <col min="12" max="12" width="15.81640625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="15.85546875" style="7" customWidth="1"/>
     <col min="13" max="13" width="15" style="7" customWidth="1"/>
-    <col min="14" max="16384" width="9.1796875" style="7"/>
+    <col min="14" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="62" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -587,8 +602,17 @@
       <c r="M1" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -619,8 +643,17 @@
       <c r="J2" s="3"/>
       <c r="K2" s="6"/>
       <c r="L2" s="3"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N2" s="7">
+        <v>0</v>
+      </c>
+      <c r="O2" s="7">
+        <v>0</v>
+      </c>
+      <c r="P2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="str">
         <f>A2</f>
         <v>Blue</v>
@@ -652,8 +685,17 @@
       <c r="J3" s="3"/>
       <c r="K3" s="6"/>
       <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="str">
         <f t="shared" ref="A4:A16" si="0">A3</f>
         <v>Blue</v>
@@ -689,8 +731,17 @@
       <c r="L4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -722,8 +773,17 @@
       <c r="J5" s="3"/>
       <c r="K5" s="6"/>
       <c r="L5" s="3"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="P5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -759,8 +819,17 @@
       <c r="L6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N6" s="7">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -796,8 +865,17 @@
       <c r="L7" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -829,8 +907,17 @@
       <c r="J8" s="3"/>
       <c r="K8" s="6"/>
       <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N8" s="7">
+        <v>0</v>
+      </c>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -862,8 +949,17 @@
       <c r="J9" s="3"/>
       <c r="K9" s="6"/>
       <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N9" s="7">
+        <v>0</v>
+      </c>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="P9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -902,8 +998,17 @@
       <c r="M10" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N10" s="7">
+        <v>0</v>
+      </c>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="P10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -942,8 +1047,17 @@
       <c r="M11" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N11" s="7">
+        <v>0</v>
+      </c>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="P11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -979,8 +1093,17 @@
       <c r="L12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N12" s="7">
+        <v>0</v>
+      </c>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -1012,8 +1135,17 @@
       <c r="J13" s="3"/>
       <c r="K13" s="6"/>
       <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N13" s="7">
+        <v>0</v>
+      </c>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="P13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -1045,8 +1177,17 @@
       <c r="J14" s="3"/>
       <c r="K14" s="6"/>
       <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N14" s="7">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -1085,8 +1226,17 @@
       <c r="M15" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="N15" s="7">
+        <v>0</v>
+      </c>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="P15" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -1125,8 +1275,18 @@
       <c r="M16" s="7">
         <v>0</v>
       </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>0</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Track_Model/Blue Line.xlsx
+++ b/Track_Model/Blue Line.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DRich\PycharmProjects\ece1140-tovarish\Track_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6564752A-1BB3-4582-9D41-F11F63EC7136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5C5379-727C-4EF9-ABA0-382265E21FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="11010" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Track_Model/Blue Line.xlsx
+++ b/Track_Model/Blue Line.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DRich\PycharmProjects\ece1140-tovarish\Track_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5C5379-727C-4EF9-ABA0-382265E21FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212FEC58-0FB7-477B-A757-90FDE62093EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>Line</t>
   </si>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>Broken Rail Failure</t>
+  </si>
+  <si>
+    <t>Embarking</t>
+  </si>
+  <si>
+    <t>Ticket Sales</t>
   </si>
 </sst>
 </file>
@@ -539,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,10 +565,12 @@
     <col min="11" max="11" width="8" style="7" customWidth="1"/>
     <col min="12" max="12" width="15.85546875" style="7" customWidth="1"/>
     <col min="13" max="13" width="15" style="7" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="7"/>
+    <col min="14" max="16" width="9.140625" style="7"/>
+    <col min="17" max="18" width="11.5703125" style="7" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="63" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="63" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -611,8 +619,14 @@
       <c r="P1" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -653,7 +667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="str">
         <f>A2</f>
         <v>Blue</v>
@@ -695,7 +709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="str">
         <f t="shared" ref="A4:A16" si="0">A3</f>
         <v>Blue</v>
@@ -741,7 +755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -783,7 +797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -829,7 +843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -875,7 +889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -917,7 +931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -959,7 +973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -1008,7 +1022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -1056,8 +1070,14 @@
       <c r="P11" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="Q11" s="7">
+        <v>0</v>
+      </c>
+      <c r="R11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -1103,7 +1123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -1145,7 +1165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -1187,7 +1207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -1236,7 +1256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>Blue</v>
@@ -1282,6 +1302,12 @@
         <v>0</v>
       </c>
       <c r="P16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>0</v>
+      </c>
+      <c r="R16" s="7">
         <v>0</v>
       </c>
     </row>

--- a/Track_Model/Blue Line.xlsx
+++ b/Track_Model/Blue Line.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DRich\PycharmProjects\ece1140-tovarish\Track_Model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{212FEC58-0FB7-477B-A757-90FDE62093EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAB9511-9280-44E8-A7C2-C3232E9BB7F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -547,8 +547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,10 +620,10 @@
         <v>27</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
